--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick4\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770C9B29-778D-4748-927F-8280159E1E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E6EB98-8C46-47E2-9157-3A0A1A6485C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31605" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -979,64 +979,6 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C31">
-        <f>SUM(C2:C30)</f>
-        <v>33.200000000000003</v>
-      </c>
-      <c r="D31">
-        <f>SUM(D2:D30)</f>
-        <v>25.1</v>
-      </c>
-      <c r="E31">
-        <f>SUM(E2:E30)</f>
-        <v>20.100000000000001</v>
-      </c>
-      <c r="F31">
-        <f>SUM(F2:F30)</f>
-        <v>18.600000000000001</v>
-      </c>
-      <c r="G31">
-        <f>SUM(G2:G30)</f>
-        <v>16.100000000000001</v>
-      </c>
-      <c r="H31">
-        <f>SUM(H2:H30)</f>
-        <v>8.5</v>
-      </c>
-      <c r="I31">
-        <f>SUM(I2:I29)</f>
-        <v>5.7</v>
-      </c>
-      <c r="J31">
-        <f>SUM(J2:J30)</f>
-        <v>5.9</v>
-      </c>
-      <c r="K31">
-        <f>SUM(K2:K30)</f>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="L31">
-        <f>SUM(L2:L30)</f>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="M31">
-        <f>SUM(M2:M30)</f>
-        <v>6.8</v>
-      </c>
-      <c r="N31">
-        <f>SUM(N2:N29)</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="O31">
-        <f>SUM(O2:O30)</f>
-        <v>6.8</v>
-      </c>
-      <c r="P31">
-        <f>SUM(P2:P30)</f>
-        <v>6.8</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
